--- a/导航网站.xlsx
+++ b/导航网站.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malong\Desktop\caima-tab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E701A09-BAD8-4F2E-B364-02CE3167FC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C9D90-E727-484A-AA28-9294B7D697A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t>https://paddlepaddle-org-cn.cdn.bcebos.com/paddle-site-front/favicon-48.png</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>https://github.githubassets.com/favicons/favicon.png</t>
+  </si>
+  <si>
+    <t>Github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.modelscope.cn/home</t>
+  </si>
+  <si>
+    <t>https://g.alicdn.com/sail-web/maas/2.7.11/favicon/128.ico</t>
+  </si>
+  <si>
+    <t>魔搭社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -644,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,14 +988,41 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -984,5 +1035,6 @@
     <hyperlink ref="C27" r:id="rId5" xr:uid="{580DE0A8-CD2C-404F-8D6D-F3EB80A0181A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>